--- a/graph_generation/results/hermes_llama2/level_5/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_5/k_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -76,24 +76,23 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -145,21 +144,21 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node O? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O
- A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- L 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0
+ F 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -215,16 +214,16 @@
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
  G 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
  K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
@@ -280,24 +279,24 @@
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -343,24 +342,22 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ D 1 0 0 0 0 0 1 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ F 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 1 0 0 0
+ H 0 0 0 0 1 0 1 0 1 0 0 0 0 0
+ I 0 0 0 0 0 1 0 1 0 1 0 0 1 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ K 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -416,18 +413,18 @@
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
  G 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
@@ -479,26 +476,26 @@
  Given these examples, answer the following quesiton.
 What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ A 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
  N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
  O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -544,28 +541,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1
+ M 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
@@ -611,55 +607,133 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
  Given these examples, answer the following quesiton.
-What is the shortest path from node A to node P? Return the sequence of nodes in response.
+What is the shortest path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ F 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0
+ G 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: What is the shortest path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
  D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ F 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
+ H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
+ L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+Solution: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P
+Example 2: What is the shortest path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0
+ D 1 0 0 0 1 0 1 0 0
+ E 0 1 0 1 0 1 0 1 0
+ F 0 0 1 0 1 0 0 0 1
+ G 0 0 0 1 0 0 0 1 0
+ H 0 0 0 0 1 0 1 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
+Example 3: What is the shortest path from node A to node I? Return the sequence of nodes in response.
+   A B C D E F G H I
+ A 0 1 0 1 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0
+ C 0 1 0 0 0 1 0 0 0
+ D 1 0 0 0 1 0 1 0 0
+ E 0 0 0 1 0 1 0 1 0
+ F 0 0 1 0 1 0 0 0 1
+ G 0 0 0 1 0 0 0 1 0
+ H 0 0 0 0 1 0 1 0 1
+ I 0 0 0 0 0 1 0 1 0
+Solution: A -&gt; D -&gt; E -&gt; F -&gt; I
+ Given these examples, answer the following quesiton.
+What is the shortest path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
  E 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0
+ F 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0
  H 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0
  I 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0
+ K 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0
  L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
+ N 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1
  P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; K -&gt; O</t>
+    <t>A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
   </si>
   <si>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N</t>
+  </si>
+  <si>
     <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; K -&gt; L -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; F -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O.</t>
   </si>
   <si>
     <t>The shortest path from node A to node P is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P.</t>
   </si>
   <si>
-    <t>The shortest path from node A to node O is A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; L -&gt; O.</t>
+    <t>The shortest path from node A to node N is A -&gt; M -&gt; N.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>Wrong.</t>
   </si>
 </sst>
 </file>
@@ -1042,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1056,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1070,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1084,13 +1158,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1098,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1112,13 +1186,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1126,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1140,13 +1214,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1154,27 +1228,27 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
